--- a/tools/materials/GICS_map2018.xlsx
+++ b/tools/materials/GICS_map2018.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Desktop\CourseMaterial\CSCI4125_2021_Spring\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\under\Desktop\School Work\Computer Science\4125 - Data Models and Database Systems\gproject\tools\materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EAD3D6DC-C6AA-468A-A114-B9C0EAA1D4FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC98301-2200-4D00-8157-61CC50734E95}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{830EBDA4-F6CA-459C-B008-7D0A096B13AB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{830EBDA4-F6CA-459C-B008-7D0A096B13AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="229">
   <si>
     <t>Sector</t>
   </si>
@@ -869,6 +870,12 @@
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -878,25 +885,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1216,2664 +1217,2664 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FEBFFFB-1925-4067-AF6E-6E756B06FE98}">
   <dimension ref="A1:H159"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:D25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:H159"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.54296875" customWidth="1"/>
-    <col min="3" max="3" width="17.1796875" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="14.90625" customWidth="1"/>
-    <col min="6" max="6" width="14.6328125" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="20.6328125" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="4"/>
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="3">
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
         <v>10</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="5">
         <v>1010</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="5">
         <v>101010</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="1">
         <v>10101010</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="5">
+      <c r="D3" s="9"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="1">
         <v>10101020</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="3">
+      <c r="D4" s="9"/>
+      <c r="E4" s="5">
         <v>101020</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="1">
         <v>10102010</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
-      <c r="D5" s="7"/>
+      <c r="D5" s="9"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="5">
+      <c r="G5" s="1">
         <v>10102020</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
-      <c r="D6" s="7"/>
+      <c r="D6" s="9"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="5">
+      <c r="G6" s="1">
         <v>10102030</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="7"/>
+      <c r="D7" s="9"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="5">
+      <c r="G7" s="1">
         <v>10102040</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="5">
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="1">
         <v>10102050</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="3">
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
         <v>15</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="5">
         <v>1510</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="5">
         <v>151010</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="1">
         <v>15101010</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="5">
+      <c r="F10" s="9"/>
+      <c r="G10" s="1">
         <v>15101020</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="5">
+      <c r="F11" s="9"/>
+      <c r="G11" s="1">
         <v>15101030</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="5">
+      <c r="F12" s="9"/>
+      <c r="G12" s="1">
         <v>15101040</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="5">
+      <c r="E13" s="7"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="1">
         <v>15101050</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="5">
+      <c r="E14" s="1">
         <v>151020</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="1">
         <v>15102010</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
-      <c r="E15" s="3">
+      <c r="E15" s="5">
         <v>151030</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="1">
         <v>15103010</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="5">
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="1">
         <v>15103020</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
-      <c r="E17" s="3">
+      <c r="E17" s="5">
         <v>151040</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="1">
         <v>15104010</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="5">
+      <c r="G18" s="1">
         <v>15104020</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="5">
+      <c r="G19" s="1">
         <v>15104025</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="5">
+      <c r="G20" s="1">
         <v>15104030</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
-      <c r="G21" s="5">
+      <c r="G21" s="1">
         <v>15104040</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
-      <c r="G22" s="5">
+      <c r="G22" s="1">
         <v>15104045</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="5">
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="1">
         <v>15104050</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
-      <c r="E24" s="3">
+      <c r="E24" s="5">
         <v>151050</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24" s="1">
         <v>15105010</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H24" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="5">
+    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="1">
         <v>15105020</v>
       </c>
-      <c r="H25" s="10" t="s">
+      <c r="H25" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="3">
+    <row r="26" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
         <v>20</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="5">
         <v>2010</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="1">
         <v>201010</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="F26" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26" s="1">
         <v>20101010</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="H26" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="5">
+      <c r="D27" s="9"/>
+      <c r="E27" s="1">
         <v>201020</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" s="1">
         <v>20102010</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="H27" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="5">
+      <c r="D28" s="9"/>
+      <c r="E28" s="1">
         <v>201030</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="F28" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G28" s="1">
         <v>20103010</v>
       </c>
-      <c r="H28" s="10" t="s">
+      <c r="H28" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="3">
+      <c r="D29" s="9"/>
+      <c r="E29" s="5">
         <v>201040</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G29" s="1">
         <v>20104010</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="H29" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="5">
+      <c r="D30" s="9"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="1">
         <v>20104020</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="H30" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="5">
+      <c r="D31" s="9"/>
+      <c r="E31" s="1">
         <v>201050</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G31" s="1">
         <v>20105010</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="H31" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="3">
+      <c r="D32" s="9"/>
+      <c r="E32" s="5">
         <v>201060</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G32" s="1">
         <v>20106010</v>
       </c>
-      <c r="H32" s="5" t="s">
+      <c r="H32" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
-      <c r="D33" s="7"/>
+      <c r="D33" s="9"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
-      <c r="G33" s="5">
+      <c r="G33" s="1">
         <v>20106015</v>
       </c>
-      <c r="H33" s="5" t="s">
+      <c r="H33" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="5">
+      <c r="D34" s="9"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="1">
         <v>20106020</v>
       </c>
-      <c r="H34" s="5" t="s">
+      <c r="H34" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="5">
+      <c r="C35" s="7"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="1">
         <v>201070</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F35" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G35" s="5">
+      <c r="G35" s="1">
         <v>20107010</v>
       </c>
-      <c r="H35" s="5" t="s">
+      <c r="H35" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
-      <c r="C36" s="3">
+      <c r="C36" s="5">
         <v>2020</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="5">
         <v>202010</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F36" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G36" s="5">
+      <c r="G36" s="1">
         <v>20201010</v>
       </c>
-      <c r="H36" s="5" t="s">
+      <c r="H36" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
-      <c r="G37" s="5">
+      <c r="G37" s="1">
         <v>20201050</v>
       </c>
-      <c r="H37" s="5" t="s">
+      <c r="H37" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
-      <c r="G38" s="5">
+      <c r="G38" s="1">
         <v>20201060</v>
       </c>
-      <c r="H38" s="5" t="s">
+      <c r="H38" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
-      <c r="G39" s="5">
+      <c r="G39" s="1">
         <v>20201070</v>
       </c>
-      <c r="H39" s="5" t="s">
+      <c r="H39" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="5">
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="1">
         <v>20201080</v>
       </c>
-      <c r="H40" s="5" t="s">
+      <c r="H40" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
-      <c r="E41" s="3">
+      <c r="E41" s="5">
         <v>202020</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="F41" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G41" s="5">
+      <c r="G41" s="1">
         <v>20202010</v>
       </c>
-      <c r="H41" s="5" t="s">
+      <c r="H41" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="5">
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="1">
         <v>20202020</v>
       </c>
-      <c r="H42" s="5" t="s">
+      <c r="H42" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
-      <c r="C43" s="3">
+      <c r="C43" s="5">
         <v>2030</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E43" s="1">
         <v>203010</v>
       </c>
-      <c r="F43" s="5" t="s">
+      <c r="F43" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G43" s="5">
+      <c r="G43" s="1">
         <v>20301010</v>
       </c>
-      <c r="H43" s="5" t="s">
+      <c r="H43" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
-      <c r="E44" s="5">
+      <c r="E44" s="1">
         <v>203020</v>
       </c>
-      <c r="F44" s="10" t="s">
+      <c r="F44" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G44" s="5">
+      <c r="G44" s="1">
         <v>20302010</v>
       </c>
-      <c r="H44" s="10" t="s">
+      <c r="H44" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
-      <c r="E45" s="5">
+      <c r="E45" s="1">
         <v>203030</v>
       </c>
-      <c r="F45" s="10" t="s">
+      <c r="F45" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G45" s="5">
+      <c r="G45" s="1">
         <v>20303010</v>
       </c>
-      <c r="H45" s="5" t="s">
+      <c r="H45" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
-      <c r="E46" s="3">
+      <c r="E46" s="5">
         <v>203040</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="F46" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="G46" s="5">
+      <c r="G46" s="1">
         <v>20304010</v>
       </c>
-      <c r="H46" s="5" t="s">
+      <c r="H46" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="5">
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="1">
         <v>20304020</v>
       </c>
-      <c r="H47" s="5" t="s">
+      <c r="H47" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
-      <c r="E48" s="3">
+      <c r="E48" s="5">
         <v>203050</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="F48" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="G48" s="5">
+      <c r="G48" s="1">
         <v>20305010</v>
       </c>
-      <c r="H48" s="5" t="s">
+      <c r="H48" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
-      <c r="G49" s="5">
+      <c r="G49" s="1">
         <v>20305020</v>
       </c>
-      <c r="H49" s="5" t="s">
+      <c r="H49" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="8"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="5">
+    <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="1">
         <v>20305030</v>
       </c>
-      <c r="H50" s="5" t="s">
+      <c r="H50" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="3">
+    <row r="51" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="5">
         <v>25</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51" s="5">
         <v>2510</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E51" s="5">
         <v>251010</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="F51" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G51" s="5">
+      <c r="G51" s="1">
         <v>25101010</v>
       </c>
-      <c r="H51" s="5" t="s">
+      <c r="H51" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="5">
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="1">
         <v>25101020</v>
       </c>
-      <c r="H52" s="5" t="s">
+      <c r="H52" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
-      <c r="E53" s="3">
+      <c r="E53" s="5">
         <v>251020</v>
       </c>
-      <c r="F53" s="3" t="s">
+      <c r="F53" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="G53" s="5">
+      <c r="G53" s="1">
         <v>25102010</v>
       </c>
-      <c r="H53" s="5" t="s">
+      <c r="H53" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="5">
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="1">
         <v>25102020</v>
       </c>
-      <c r="H54" s="5" t="s">
+      <c r="H54" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
-      <c r="C55" s="3">
+      <c r="C55" s="5">
         <v>2520</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D55" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E55" s="3">
+      <c r="E55" s="5">
         <v>252010</v>
       </c>
-      <c r="F55" s="3" t="s">
+      <c r="F55" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="G55" s="5">
+      <c r="G55" s="1">
         <v>25201010</v>
       </c>
-      <c r="H55" s="5" t="s">
+      <c r="H55" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
-      <c r="G56" s="5">
+      <c r="G56" s="1">
         <v>25201020</v>
       </c>
-      <c r="H56" s="5" t="s">
+      <c r="H56" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
-      <c r="G57" s="5">
+      <c r="G57" s="1">
         <v>25201030</v>
       </c>
-      <c r="H57" s="5" t="s">
+      <c r="H57" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
-      <c r="G58" s="5">
+      <c r="G58" s="1">
         <v>25201040</v>
       </c>
-      <c r="H58" s="5" t="s">
+      <c r="H58" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="5">
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="1">
         <v>25201050</v>
       </c>
-      <c r="H59" s="5" t="s">
+      <c r="H59" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
-      <c r="E60" s="5">
+      <c r="E60" s="1">
         <v>252020</v>
       </c>
-      <c r="F60" s="5" t="s">
+      <c r="F60" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G60" s="5">
+      <c r="G60" s="1">
         <v>25202010</v>
       </c>
-      <c r="H60" s="5" t="s">
+      <c r="H60" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:8" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="3">
+      <c r="E61" s="5">
         <v>252030</v>
       </c>
-      <c r="F61" s="4" t="s">
+      <c r="F61" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="G61" s="5">
+      <c r="G61" s="1">
         <v>25203010</v>
       </c>
-      <c r="H61" s="5" t="s">
+      <c r="H61" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="5">
+      <c r="F62" s="9"/>
+      <c r="G62" s="1">
         <v>25203020</v>
       </c>
-      <c r="H62" s="5" t="s">
+      <c r="H62" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="5">
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="1">
         <v>25203030</v>
       </c>
-      <c r="H63" s="5" t="s">
+      <c r="H63" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
-      <c r="C64" s="3">
+      <c r="C64" s="5">
         <v>2530</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="D64" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E64" s="3">
+      <c r="E64" s="5">
         <v>253010</v>
       </c>
-      <c r="F64" s="3" t="s">
+      <c r="F64" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="G64" s="5">
+      <c r="G64" s="1">
         <v>25301010</v>
       </c>
-      <c r="H64" s="5" t="s">
+      <c r="H64" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
-      <c r="G65" s="5">
+      <c r="G65" s="1">
         <v>25301020</v>
       </c>
-      <c r="H65" s="5" t="s">
+      <c r="H65" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
-      <c r="G66" s="5">
+      <c r="G66" s="1">
         <v>25301030</v>
       </c>
-      <c r="H66" s="5" t="s">
+      <c r="H66" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="5">
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="1">
         <v>25301040</v>
       </c>
-      <c r="H67" s="5" t="s">
+      <c r="H67" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
-      <c r="E68" s="3">
+      <c r="E68" s="5">
         <v>253020</v>
       </c>
-      <c r="F68" s="3" t="s">
+      <c r="F68" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="G68" s="5">
+      <c r="G68" s="1">
         <v>25302010</v>
       </c>
-      <c r="H68" s="5" t="s">
+      <c r="H68" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="5">
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="1">
         <v>25302020</v>
       </c>
-      <c r="H69" s="5" t="s">
+      <c r="H69" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
-      <c r="C70" s="3">
+      <c r="C70" s="5">
         <v>2550</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="D70" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E70" s="5">
+      <c r="E70" s="1">
         <v>255010</v>
       </c>
-      <c r="F70" s="5" t="s">
+      <c r="F70" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G70" s="5">
+      <c r="G70" s="1">
         <v>25501010</v>
       </c>
-      <c r="H70" s="5" t="s">
+      <c r="H70" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
-      <c r="E71" s="5">
+      <c r="E71" s="1">
         <v>255020</v>
       </c>
-      <c r="F71" s="5" t="s">
+      <c r="F71" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G71" s="5">
+      <c r="G71" s="1">
         <v>25502020</v>
       </c>
-      <c r="H71" s="5" t="s">
+      <c r="H71" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
-      <c r="E72" s="3">
+      <c r="E72" s="5">
         <v>255030</v>
       </c>
-      <c r="F72" s="3" t="s">
+      <c r="F72" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="G72" s="5">
+      <c r="G72" s="1">
         <v>25503010</v>
       </c>
-      <c r="H72" s="5" t="s">
+      <c r="H72" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
-      <c r="E73" s="8"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="5">
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="1">
         <v>25503020</v>
       </c>
-      <c r="H73" s="5" t="s">
+      <c r="H73" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="6"/>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
-      <c r="E74" s="3">
+      <c r="E74" s="5">
         <v>255040</v>
       </c>
-      <c r="F74" s="3" t="s">
+      <c r="F74" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="G74" s="5">
+      <c r="G74" s="1">
         <v>25504010</v>
       </c>
-      <c r="H74" s="5" t="s">
+      <c r="H74" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="6"/>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
-      <c r="G75" s="5">
+      <c r="G75" s="1">
         <v>25504020</v>
       </c>
-      <c r="H75" s="5" t="s">
+      <c r="H75" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
-      <c r="G76" s="5">
+      <c r="G76" s="1">
         <v>25504030</v>
       </c>
-      <c r="H76" s="5" t="s">
+      <c r="H76" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
-      <c r="G77" s="5">
+      <c r="G77" s="1">
         <v>25504040</v>
       </c>
-      <c r="H77" s="5" t="s">
+      <c r="H77" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
-      <c r="G78" s="5">
+      <c r="G78" s="1">
         <v>25504050</v>
       </c>
-      <c r="H78" s="5" t="s">
+      <c r="H78" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="8"/>
-      <c r="B79" s="8"/>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="8"/>
-      <c r="F79" s="8"/>
-      <c r="G79" s="5">
+    <row r="79" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="7"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="1">
         <v>25504060</v>
       </c>
-      <c r="H79" s="5" t="s">
+      <c r="H79" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="3">
+    <row r="80" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="5">
         <v>30</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C80" s="3">
+      <c r="C80" s="5">
         <v>3010</v>
       </c>
-      <c r="D80" s="3" t="s">
+      <c r="D80" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="E80" s="3">
+      <c r="E80" s="5">
         <v>301010</v>
       </c>
-      <c r="F80" s="3" t="s">
+      <c r="F80" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="G80" s="5">
+      <c r="G80" s="1">
         <v>30101010</v>
       </c>
-      <c r="H80" s="5" t="s">
+      <c r="H80" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
       <c r="E81" s="6"/>
       <c r="F81" s="6"/>
-      <c r="G81" s="5">
+      <c r="G81" s="1">
         <v>30101020</v>
       </c>
-      <c r="H81" s="5" t="s">
+      <c r="H81" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="6"/>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
       <c r="F82" s="6"/>
-      <c r="G82" s="5">
+      <c r="G82" s="1">
         <v>30101030</v>
       </c>
-      <c r="H82" s="5" t="s">
+      <c r="H82" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="6"/>
       <c r="B83" s="6"/>
-      <c r="C83" s="8"/>
-      <c r="D83" s="8"/>
-      <c r="E83" s="8"/>
-      <c r="F83" s="8"/>
-      <c r="G83" s="5">
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="1">
         <v>30101040</v>
       </c>
-      <c r="H83" s="5" t="s">
+      <c r="H83" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
-      <c r="C84" s="3">
+      <c r="C84" s="5">
         <v>3020</v>
       </c>
-      <c r="D84" s="3" t="s">
+      <c r="D84" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E84" s="3">
+      <c r="E84" s="5">
         <v>302010</v>
       </c>
-      <c r="F84" s="3" t="s">
+      <c r="F84" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="G84" s="5">
+      <c r="G84" s="1">
         <v>30201010</v>
       </c>
-      <c r="H84" s="5" t="s">
+      <c r="H84" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
       <c r="F85" s="6"/>
-      <c r="G85" s="5">
+      <c r="G85" s="1">
         <v>30201020</v>
       </c>
-      <c r="H85" s="5" t="s">
+      <c r="H85" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="6"/>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
-      <c r="E86" s="8"/>
-      <c r="F86" s="8"/>
-      <c r="G86" s="5">
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="1">
         <v>30201030</v>
       </c>
-      <c r="H86" s="5" t="s">
+      <c r="H86" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="6"/>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
-      <c r="E87" s="3">
+      <c r="E87" s="5">
         <v>302020</v>
       </c>
-      <c r="F87" s="3" t="s">
+      <c r="F87" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="G87" s="5">
+      <c r="G87" s="1">
         <v>30202010</v>
       </c>
-      <c r="H87" s="5" t="s">
+      <c r="H87" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="6"/>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
-      <c r="E88" s="8"/>
-      <c r="F88" s="8"/>
-      <c r="G88" s="5">
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="1">
         <v>30202030</v>
       </c>
-      <c r="H88" s="5" t="s">
+      <c r="H88" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="6"/>
       <c r="B89" s="6"/>
-      <c r="C89" s="8"/>
-      <c r="D89" s="8"/>
-      <c r="E89" s="5">
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="1">
         <v>302030</v>
       </c>
-      <c r="F89" s="5" t="s">
+      <c r="F89" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="G89" s="5">
+      <c r="G89" s="1">
         <v>30203010</v>
       </c>
-      <c r="H89" s="5" t="s">
+      <c r="H89" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="6"/>
       <c r="B90" s="6"/>
-      <c r="C90" s="3">
+      <c r="C90" s="5">
         <v>3030</v>
       </c>
-      <c r="D90" s="3" t="s">
+      <c r="D90" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="E90" s="5">
+      <c r="E90" s="1">
         <v>303010</v>
       </c>
-      <c r="F90" s="5" t="s">
+      <c r="F90" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="G90" s="5">
+      <c r="G90" s="1">
         <v>30301010</v>
       </c>
-      <c r="H90" s="5" t="s">
+      <c r="H90" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A91" s="8"/>
-      <c r="B91" s="8"/>
-      <c r="C91" s="8"/>
-      <c r="D91" s="8"/>
-      <c r="E91" s="5">
+    <row r="91" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="7"/>
+      <c r="B91" s="7"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="1">
         <v>303020</v>
       </c>
-      <c r="F91" s="5" t="s">
+      <c r="F91" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="G91" s="5">
+      <c r="G91" s="1">
         <v>30302010</v>
       </c>
-      <c r="H91" s="5" t="s">
+      <c r="H91" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A92" s="3">
+    <row r="92" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="5">
         <v>35</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C92" s="3">
+      <c r="C92" s="5">
         <v>3510</v>
       </c>
-      <c r="D92" s="3" t="s">
+      <c r="D92" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="E92" s="3">
+      <c r="E92" s="5">
         <v>351010</v>
       </c>
-      <c r="F92" s="3" t="s">
+      <c r="F92" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="G92" s="5">
+      <c r="G92" s="1">
         <v>35101010</v>
       </c>
-      <c r="H92" s="5" t="s">
+      <c r="H92" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="6"/>
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
-      <c r="E93" s="8"/>
-      <c r="F93" s="8"/>
-      <c r="G93" s="5">
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="1">
         <v>35101020</v>
       </c>
-      <c r="H93" s="5" t="s">
+      <c r="H93" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
-      <c r="E94" s="3">
+      <c r="E94" s="5">
         <v>351020</v>
       </c>
-      <c r="F94" s="3" t="s">
+      <c r="F94" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="G94" s="5">
+      <c r="G94" s="1">
         <v>35102010</v>
       </c>
-      <c r="H94" s="5" t="s">
+      <c r="H94" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="6"/>
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
       <c r="E95" s="6"/>
       <c r="F95" s="6"/>
-      <c r="G95" s="5">
+      <c r="G95" s="1">
         <v>35102015</v>
       </c>
-      <c r="H95" s="5" t="s">
+      <c r="H95" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="6"/>
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
       <c r="E96" s="6"/>
       <c r="F96" s="6"/>
-      <c r="G96" s="5">
+      <c r="G96" s="1">
         <v>35102020</v>
       </c>
-      <c r="H96" s="5" t="s">
+      <c r="H96" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="6"/>
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
-      <c r="E97" s="8"/>
-      <c r="F97" s="8"/>
-      <c r="G97" s="5">
+      <c r="E97" s="7"/>
+      <c r="F97" s="7"/>
+      <c r="G97" s="1">
         <v>35102030</v>
       </c>
-      <c r="H97" s="5" t="s">
+      <c r="H97" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="6"/>
       <c r="B98" s="6"/>
-      <c r="C98" s="8"/>
-      <c r="D98" s="8"/>
-      <c r="E98" s="5">
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="1">
         <v>351030</v>
       </c>
-      <c r="F98" s="5" t="s">
+      <c r="F98" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="G98" s="5">
+      <c r="G98" s="1">
         <v>35103010</v>
       </c>
-      <c r="H98" s="5" t="s">
+      <c r="H98" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="6"/>
       <c r="B99" s="6"/>
-      <c r="C99" s="3">
+      <c r="C99" s="5">
         <v>3520</v>
       </c>
-      <c r="D99" s="3" t="s">
+      <c r="D99" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="E99" s="5">
+      <c r="E99" s="1">
         <v>352010</v>
       </c>
-      <c r="F99" s="5" t="s">
+      <c r="F99" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="G99" s="5">
+      <c r="G99" s="1">
         <v>35201010</v>
       </c>
-      <c r="H99" s="5" t="s">
+      <c r="H99" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="6"/>
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
       <c r="D100" s="6"/>
-      <c r="E100" s="5">
+      <c r="E100" s="1">
         <v>352020</v>
       </c>
-      <c r="F100" s="5" t="s">
+      <c r="F100" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="G100" s="5">
+      <c r="G100" s="1">
         <v>35202010</v>
       </c>
-      <c r="H100" s="5" t="s">
+      <c r="H100" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A101" s="8"/>
-      <c r="B101" s="8"/>
-      <c r="C101" s="8"/>
-      <c r="D101" s="8"/>
-      <c r="E101" s="5">
+    <row r="101" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="7"/>
+      <c r="B101" s="7"/>
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="1">
         <v>352030</v>
       </c>
-      <c r="F101" s="5" t="s">
+      <c r="F101" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="G101" s="5">
+      <c r="G101" s="1">
         <v>35203010</v>
       </c>
-      <c r="H101" s="5" t="s">
+      <c r="H101" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A102" s="3">
+    <row r="102" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="5">
         <v>40</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B102" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C102" s="3">
+      <c r="C102" s="5">
         <v>4010</v>
       </c>
-      <c r="D102" s="3" t="s">
+      <c r="D102" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="E102" s="3">
+      <c r="E102" s="5">
         <v>401010</v>
       </c>
-      <c r="F102" s="3" t="s">
+      <c r="F102" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="G102" s="5">
+      <c r="G102" s="1">
         <v>40101010</v>
       </c>
-      <c r="H102" s="5" t="s">
+      <c r="H102" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="6"/>
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
       <c r="D103" s="6"/>
-      <c r="E103" s="8"/>
-      <c r="F103" s="8"/>
-      <c r="G103" s="5">
+      <c r="E103" s="7"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="1">
         <v>40101015</v>
       </c>
-      <c r="H103" s="5" t="s">
+      <c r="H103" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="6"/>
       <c r="B104" s="6"/>
-      <c r="C104" s="8"/>
-      <c r="D104" s="8"/>
-      <c r="E104" s="5">
+      <c r="C104" s="7"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="1">
         <v>401020</v>
       </c>
-      <c r="F104" s="5" t="s">
+      <c r="F104" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="G104" s="5">
+      <c r="G104" s="1">
         <v>40102010</v>
       </c>
-      <c r="H104" s="5" t="s">
+      <c r="H104" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="6"/>
       <c r="B105" s="6"/>
-      <c r="C105" s="3">
+      <c r="C105" s="5">
         <v>4020</v>
       </c>
-      <c r="D105" s="3" t="s">
+      <c r="D105" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="E105" s="3">
+      <c r="E105" s="5">
         <v>402010</v>
       </c>
-      <c r="F105" s="3" t="s">
+      <c r="F105" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="G105" s="5">
+      <c r="G105" s="1">
         <v>40201020</v>
       </c>
-      <c r="H105" s="5" t="s">
+      <c r="H105" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="6"/>
       <c r="B106" s="6"/>
       <c r="C106" s="6"/>
       <c r="D106" s="6"/>
       <c r="E106" s="6"/>
       <c r="F106" s="6"/>
-      <c r="G106" s="5">
+      <c r="G106" s="1">
         <v>40201030</v>
       </c>
-      <c r="H106" s="5" t="s">
+      <c r="H106" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="6"/>
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
-      <c r="E107" s="8"/>
-      <c r="F107" s="8"/>
-      <c r="G107" s="5">
+      <c r="E107" s="7"/>
+      <c r="F107" s="7"/>
+      <c r="G107" s="1">
         <v>40201040</v>
       </c>
-      <c r="H107" s="5" t="s">
+      <c r="H107" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="6"/>
       <c r="B108" s="6"/>
       <c r="C108" s="6"/>
       <c r="D108" s="6"/>
-      <c r="E108" s="5">
+      <c r="E108" s="1">
         <v>402020</v>
       </c>
-      <c r="F108" s="5" t="s">
+      <c r="F108" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="G108" s="5">
+      <c r="G108" s="1">
         <v>40202010</v>
       </c>
-      <c r="H108" s="5" t="s">
+      <c r="H108" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="6"/>
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
       <c r="D109" s="6"/>
-      <c r="E109" s="3">
+      <c r="E109" s="5">
         <v>402030</v>
       </c>
-      <c r="F109" s="3" t="s">
+      <c r="F109" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="G109" s="5">
+      <c r="G109" s="1">
         <v>40203010</v>
       </c>
-      <c r="H109" s="5" t="s">
+      <c r="H109" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="6"/>
       <c r="B110" s="6"/>
       <c r="C110" s="6"/>
       <c r="D110" s="6"/>
       <c r="E110" s="6"/>
       <c r="F110" s="6"/>
-      <c r="G110" s="5">
+      <c r="G110" s="1">
         <v>40203020</v>
       </c>
-      <c r="H110" s="5" t="s">
+      <c r="H110" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="6"/>
       <c r="B111" s="6"/>
       <c r="C111" s="6"/>
       <c r="D111" s="6"/>
       <c r="E111" s="6"/>
       <c r="F111" s="6"/>
-      <c r="G111" s="5">
+      <c r="G111" s="1">
         <v>40203030</v>
       </c>
-      <c r="H111" s="5" t="s">
+      <c r="H111" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="6"/>
       <c r="B112" s="6"/>
       <c r="C112" s="6"/>
       <c r="D112" s="6"/>
-      <c r="E112" s="8"/>
-      <c r="F112" s="8"/>
-      <c r="G112" s="5">
+      <c r="E112" s="7"/>
+      <c r="F112" s="7"/>
+      <c r="G112" s="1">
         <v>40203040</v>
       </c>
-      <c r="H112" s="5" t="s">
+      <c r="H112" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="6"/>
       <c r="B113" s="6"/>
-      <c r="C113" s="8"/>
-      <c r="D113" s="8"/>
-      <c r="E113" s="5">
+      <c r="C113" s="7"/>
+      <c r="D113" s="7"/>
+      <c r="E113" s="1">
         <v>402040</v>
       </c>
-      <c r="F113" s="5" t="s">
+      <c r="F113" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="G113" s="5">
+      <c r="G113" s="1">
         <v>40204010</v>
       </c>
-      <c r="H113" s="5" t="s">
+      <c r="H113" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="6"/>
       <c r="B114" s="6"/>
-      <c r="C114" s="3">
+      <c r="C114" s="5">
         <v>4030</v>
       </c>
-      <c r="D114" s="3" t="s">
+      <c r="D114" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="E114" s="3">
+      <c r="E114" s="5">
         <v>403010</v>
       </c>
-      <c r="F114" s="3" t="s">
+      <c r="F114" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="G114" s="5">
+      <c r="G114" s="1">
         <v>40301010</v>
       </c>
-      <c r="H114" s="5" t="s">
+      <c r="H114" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="6"/>
       <c r="B115" s="6"/>
       <c r="C115" s="6"/>
       <c r="D115" s="6"/>
       <c r="E115" s="6"/>
       <c r="F115" s="6"/>
-      <c r="G115" s="5">
+      <c r="G115" s="1">
         <v>40301020</v>
       </c>
-      <c r="H115" s="5" t="s">
+      <c r="H115" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="6"/>
       <c r="B116" s="6"/>
       <c r="C116" s="6"/>
       <c r="D116" s="6"/>
       <c r="E116" s="6"/>
       <c r="F116" s="6"/>
-      <c r="G116" s="5">
+      <c r="G116" s="1">
         <v>40301030</v>
       </c>
-      <c r="H116" s="5" t="s">
+      <c r="H116" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="6"/>
       <c r="B117" s="6"/>
       <c r="C117" s="6"/>
       <c r="D117" s="6"/>
       <c r="E117" s="6"/>
       <c r="F117" s="6"/>
-      <c r="G117" s="5">
+      <c r="G117" s="1">
         <v>40301040</v>
       </c>
-      <c r="H117" s="5" t="s">
+      <c r="H117" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A118" s="8"/>
-      <c r="B118" s="8"/>
-      <c r="C118" s="8"/>
-      <c r="D118" s="8"/>
-      <c r="E118" s="8"/>
-      <c r="F118" s="8"/>
-      <c r="G118" s="5">
+    <row r="118" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="7"/>
+      <c r="B118" s="7"/>
+      <c r="C118" s="7"/>
+      <c r="D118" s="7"/>
+      <c r="E118" s="7"/>
+      <c r="F118" s="7"/>
+      <c r="G118" s="1">
         <v>40301050</v>
       </c>
-      <c r="H118" s="5" t="s">
+      <c r="H118" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A119" s="3">
+    <row r="119" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="5">
         <v>45</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="B119" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="C119" s="3">
+      <c r="C119" s="5">
         <v>4510</v>
       </c>
-      <c r="D119" s="3" t="s">
+      <c r="D119" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="E119" s="3">
+      <c r="E119" s="5">
         <v>451020</v>
       </c>
-      <c r="F119" s="3" t="s">
+      <c r="F119" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="G119" s="5">
+      <c r="G119" s="1">
         <v>45102010</v>
       </c>
-      <c r="H119" s="5" t="s">
+      <c r="H119" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="6"/>
       <c r="B120" s="6"/>
       <c r="C120" s="6"/>
       <c r="D120" s="6"/>
       <c r="E120" s="6"/>
       <c r="F120" s="6"/>
-      <c r="G120" s="5">
+      <c r="G120" s="1">
         <v>45102020</v>
       </c>
-      <c r="H120" s="5" t="s">
+      <c r="H120" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="6"/>
       <c r="B121" s="6"/>
       <c r="C121" s="6"/>
       <c r="D121" s="6"/>
-      <c r="E121" s="8"/>
-      <c r="F121" s="8"/>
-      <c r="G121" s="5">
+      <c r="E121" s="7"/>
+      <c r="F121" s="7"/>
+      <c r="G121" s="1">
         <v>45102030</v>
       </c>
-      <c r="H121" s="5" t="s">
+      <c r="H121" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="6"/>
       <c r="B122" s="6"/>
       <c r="C122" s="6"/>
       <c r="D122" s="6"/>
-      <c r="E122" s="3">
+      <c r="E122" s="5">
         <v>451030</v>
       </c>
-      <c r="F122" s="3" t="s">
+      <c r="F122" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="G122" s="5">
+      <c r="G122" s="1">
         <v>45103010</v>
       </c>
-      <c r="H122" s="5" t="s">
+      <c r="H122" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="6"/>
       <c r="B123" s="6"/>
-      <c r="C123" s="8"/>
-      <c r="D123" s="8"/>
-      <c r="E123" s="8"/>
-      <c r="F123" s="8"/>
-      <c r="G123" s="5">
+      <c r="C123" s="7"/>
+      <c r="D123" s="7"/>
+      <c r="E123" s="7"/>
+      <c r="F123" s="7"/>
+      <c r="G123" s="1">
         <v>45103020</v>
       </c>
-      <c r="H123" s="5" t="s">
+      <c r="H123" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="6"/>
       <c r="B124" s="6"/>
-      <c r="C124" s="3">
+      <c r="C124" s="5">
         <v>4520</v>
       </c>
-      <c r="D124" s="3" t="s">
+      <c r="D124" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="E124" s="5">
+      <c r="E124" s="1">
         <v>452010</v>
       </c>
-      <c r="F124" s="5" t="s">
+      <c r="F124" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="G124" s="5">
+      <c r="G124" s="1">
         <v>45201020</v>
       </c>
-      <c r="H124" s="5" t="s">
+      <c r="H124" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="6"/>
       <c r="B125" s="6"/>
       <c r="C125" s="6"/>
       <c r="D125" s="6"/>
-      <c r="E125" s="5">
+      <c r="E125" s="1">
         <v>452020</v>
       </c>
-      <c r="F125" s="5" t="s">
+      <c r="F125" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G125" s="5">
+      <c r="G125" s="1">
         <v>45202030</v>
       </c>
-      <c r="H125" s="5" t="s">
+      <c r="H125" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="6"/>
       <c r="B126" s="6"/>
       <c r="C126" s="6"/>
       <c r="D126" s="6"/>
-      <c r="E126" s="3">
+      <c r="E126" s="5">
         <v>452030</v>
       </c>
-      <c r="F126" s="3" t="s">
+      <c r="F126" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="G126" s="5">
+      <c r="G126" s="1">
         <v>45203010</v>
       </c>
-      <c r="H126" s="5" t="s">
+      <c r="H126" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="6"/>
       <c r="B127" s="6"/>
       <c r="C127" s="6"/>
       <c r="D127" s="6"/>
       <c r="E127" s="6"/>
       <c r="F127" s="6"/>
-      <c r="G127" s="5">
+      <c r="G127" s="1">
         <v>45203015</v>
       </c>
-      <c r="H127" s="5" t="s">
+      <c r="H127" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="6"/>
       <c r="B128" s="6"/>
       <c r="C128" s="6"/>
       <c r="D128" s="6"/>
       <c r="E128" s="6"/>
       <c r="F128" s="6"/>
-      <c r="G128" s="5">
+      <c r="G128" s="1">
         <v>45203020</v>
       </c>
-      <c r="H128" s="5" t="s">
+      <c r="H128" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="6"/>
       <c r="B129" s="6"/>
-      <c r="C129" s="8"/>
-      <c r="D129" s="8"/>
-      <c r="E129" s="8"/>
-      <c r="F129" s="8"/>
-      <c r="G129" s="5">
+      <c r="C129" s="7"/>
+      <c r="D129" s="7"/>
+      <c r="E129" s="7"/>
+      <c r="F129" s="7"/>
+      <c r="G129" s="1">
         <v>45203030</v>
       </c>
-      <c r="H129" s="5" t="s">
+      <c r="H129" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="6"/>
       <c r="B130" s="6"/>
-      <c r="C130" s="3">
+      <c r="C130" s="5">
         <v>4530</v>
       </c>
-      <c r="D130" s="3" t="s">
+      <c r="D130" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="E130" s="3">
+      <c r="E130" s="5">
         <v>453010</v>
       </c>
-      <c r="F130" s="3" t="s">
+      <c r="F130" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="G130" s="5">
+      <c r="G130" s="1">
         <v>45301010</v>
       </c>
-      <c r="H130" s="5" t="s">
+      <c r="H130" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A131" s="8"/>
-      <c r="B131" s="8"/>
-      <c r="C131" s="8"/>
-      <c r="D131" s="8"/>
-      <c r="E131" s="8"/>
-      <c r="F131" s="8"/>
-      <c r="G131" s="5">
+    <row r="131" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="7"/>
+      <c r="B131" s="7"/>
+      <c r="C131" s="7"/>
+      <c r="D131" s="7"/>
+      <c r="E131" s="7"/>
+      <c r="F131" s="7"/>
+      <c r="G131" s="1">
         <v>45301020</v>
       </c>
-      <c r="H131" s="5" t="s">
+      <c r="H131" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A132" s="3">
+    <row r="132" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="5">
         <v>50</v>
       </c>
-      <c r="B132" s="3" t="s">
+      <c r="B132" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="C132" s="3">
+      <c r="C132" s="5">
         <v>5010</v>
       </c>
-      <c r="D132" s="3" t="s">
+      <c r="D132" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="E132" s="3">
+      <c r="E132" s="5">
         <v>501010</v>
       </c>
-      <c r="F132" s="3" t="s">
+      <c r="F132" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="G132" s="5">
+      <c r="G132" s="1">
         <v>50101010</v>
       </c>
-      <c r="H132" s="5" t="s">
+      <c r="H132" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="6"/>
       <c r="B133" s="6"/>
       <c r="C133" s="6"/>
       <c r="D133" s="6"/>
-      <c r="E133" s="8"/>
-      <c r="F133" s="8"/>
-      <c r="G133" s="5">
+      <c r="E133" s="7"/>
+      <c r="F133" s="7"/>
+      <c r="G133" s="1">
         <v>50101020</v>
       </c>
-      <c r="H133" s="5" t="s">
+      <c r="H133" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="6"/>
       <c r="B134" s="6"/>
-      <c r="C134" s="8"/>
-      <c r="D134" s="8"/>
-      <c r="E134" s="5">
+      <c r="C134" s="7"/>
+      <c r="D134" s="7"/>
+      <c r="E134" s="1">
         <v>501020</v>
       </c>
-      <c r="F134" s="5" t="s">
+      <c r="F134" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="G134" s="5">
+      <c r="G134" s="1">
         <v>50102010</v>
       </c>
-      <c r="H134" s="5" t="s">
+      <c r="H134" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="6"/>
       <c r="B135" s="6"/>
-      <c r="C135" s="3">
+      <c r="C135" s="5">
         <v>5020</v>
       </c>
-      <c r="D135" s="3" t="s">
+      <c r="D135" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="E135" s="3">
+      <c r="E135" s="5">
         <v>502010</v>
       </c>
-      <c r="F135" s="3" t="s">
+      <c r="F135" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="G135" s="5">
+      <c r="G135" s="1">
         <v>50201010</v>
       </c>
-      <c r="H135" s="5" t="s">
+      <c r="H135" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="6"/>
       <c r="B136" s="6"/>
       <c r="C136" s="6"/>
       <c r="D136" s="6"/>
       <c r="E136" s="6"/>
       <c r="F136" s="6"/>
-      <c r="G136" s="5">
+      <c r="G136" s="1">
         <v>50201020</v>
       </c>
-      <c r="H136" s="5" t="s">
+      <c r="H136" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="6"/>
       <c r="B137" s="6"/>
       <c r="C137" s="6"/>
       <c r="D137" s="6"/>
       <c r="E137" s="6"/>
       <c r="F137" s="6"/>
-      <c r="G137" s="5">
+      <c r="G137" s="1">
         <v>50201030</v>
       </c>
-      <c r="H137" s="5" t="s">
+      <c r="H137" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="6"/>
       <c r="B138" s="6"/>
       <c r="C138" s="6"/>
       <c r="D138" s="6"/>
-      <c r="E138" s="8"/>
-      <c r="F138" s="8"/>
-      <c r="G138" s="5">
+      <c r="E138" s="7"/>
+      <c r="F138" s="7"/>
+      <c r="G138" s="1">
         <v>50201040</v>
       </c>
-      <c r="H138" s="5" t="s">
+      <c r="H138" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="6"/>
       <c r="B139" s="6"/>
       <c r="C139" s="6"/>
       <c r="D139" s="6"/>
-      <c r="E139" s="3">
+      <c r="E139" s="5">
         <v>502020</v>
       </c>
-      <c r="F139" s="3" t="s">
+      <c r="F139" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="G139" s="5">
+      <c r="G139" s="1">
         <v>50202010</v>
       </c>
-      <c r="H139" s="5" t="s">
+      <c r="H139" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="6"/>
       <c r="B140" s="6"/>
       <c r="C140" s="6"/>
       <c r="D140" s="6"/>
-      <c r="E140" s="8"/>
-      <c r="F140" s="8"/>
-      <c r="G140" s="5">
+      <c r="E140" s="7"/>
+      <c r="F140" s="7"/>
+      <c r="G140" s="1">
         <v>50202020</v>
       </c>
-      <c r="H140" s="5" t="s">
+      <c r="H140" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A141" s="8"/>
-      <c r="B141" s="8"/>
-      <c r="C141" s="8"/>
-      <c r="D141" s="8"/>
-      <c r="E141" s="5">
+    <row r="141" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="7"/>
+      <c r="B141" s="7"/>
+      <c r="C141" s="7"/>
+      <c r="D141" s="7"/>
+      <c r="E141" s="1">
         <v>502030</v>
       </c>
-      <c r="F141" s="5" t="s">
+      <c r="F141" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="G141" s="5">
+      <c r="G141" s="1">
         <v>50203010</v>
       </c>
-      <c r="H141" s="5" t="s">
+      <c r="H141" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A142" s="3">
+    <row r="142" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="5">
         <v>55</v>
       </c>
-      <c r="B142" s="3" t="s">
+      <c r="B142" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="C142" s="3">
+      <c r="C142" s="5">
         <v>5510</v>
       </c>
-      <c r="D142" s="3" t="s">
+      <c r="D142" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="E142" s="5">
+      <c r="E142" s="1">
         <v>551010</v>
       </c>
-      <c r="F142" s="5" t="s">
+      <c r="F142" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="G142" s="5">
+      <c r="G142" s="1">
         <v>55101010</v>
       </c>
-      <c r="H142" s="5" t="s">
+      <c r="H142" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="6"/>
       <c r="B143" s="6"/>
       <c r="C143" s="6"/>
       <c r="D143" s="6"/>
-      <c r="E143" s="5">
+      <c r="E143" s="1">
         <v>551020</v>
       </c>
-      <c r="F143" s="5" t="s">
+      <c r="F143" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="G143" s="5">
+      <c r="G143" s="1">
         <v>55102010</v>
       </c>
-      <c r="H143" s="5" t="s">
+      <c r="H143" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="6"/>
       <c r="B144" s="6"/>
       <c r="C144" s="6"/>
       <c r="D144" s="6"/>
-      <c r="E144" s="5">
+      <c r="E144" s="1">
         <v>551030</v>
       </c>
-      <c r="F144" s="5" t="s">
+      <c r="F144" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G144" s="5">
+      <c r="G144" s="1">
         <v>55103010</v>
       </c>
-      <c r="H144" s="5" t="s">
+      <c r="H144" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="6"/>
       <c r="B145" s="6"/>
       <c r="C145" s="6"/>
       <c r="D145" s="6"/>
-      <c r="E145" s="5">
+      <c r="E145" s="1">
         <v>551040</v>
       </c>
-      <c r="F145" s="5" t="s">
+      <c r="F145" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="G145" s="5">
+      <c r="G145" s="1">
         <v>55104010</v>
       </c>
-      <c r="H145" s="5" t="s">
+      <c r="H145" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="6"/>
       <c r="B146" s="6"/>
       <c r="C146" s="6"/>
       <c r="D146" s="6"/>
-      <c r="E146" s="3">
+      <c r="E146" s="5">
         <v>551050</v>
       </c>
-      <c r="F146" s="3" t="s">
+      <c r="F146" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="G146" s="5">
+      <c r="G146" s="1">
         <v>55105010</v>
       </c>
-      <c r="H146" s="5" t="s">
+      <c r="H146" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A147" s="8"/>
-      <c r="B147" s="8"/>
-      <c r="C147" s="8"/>
-      <c r="D147" s="8"/>
-      <c r="E147" s="8"/>
-      <c r="F147" s="8"/>
-      <c r="G147" s="5">
+    <row r="147" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="7"/>
+      <c r="B147" s="7"/>
+      <c r="C147" s="7"/>
+      <c r="D147" s="7"/>
+      <c r="E147" s="7"/>
+      <c r="F147" s="7"/>
+      <c r="G147" s="1">
         <v>55105020</v>
       </c>
-      <c r="H147" s="5" t="s">
+      <c r="H147" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A148" s="3">
+    <row r="148" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="5">
         <v>60</v>
       </c>
-      <c r="B148" s="3" t="s">
+      <c r="B148" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="C148" s="3">
+      <c r="C148" s="5">
         <v>6010</v>
       </c>
-      <c r="D148" s="3" t="s">
+      <c r="D148" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="E148" s="3">
+      <c r="E148" s="5">
         <v>601010</v>
       </c>
-      <c r="F148" s="3" t="s">
+      <c r="F148" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="G148" s="5">
+      <c r="G148" s="1">
         <v>60101010</v>
       </c>
-      <c r="H148" s="5" t="s">
+      <c r="H148" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="149" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="6"/>
       <c r="B149" s="6"/>
       <c r="C149" s="6"/>
       <c r="D149" s="6"/>
       <c r="E149" s="6"/>
       <c r="F149" s="6"/>
-      <c r="G149" s="5">
+      <c r="G149" s="1">
         <v>60101020</v>
       </c>
-      <c r="H149" s="5" t="s">
+      <c r="H149" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="6"/>
       <c r="B150" s="6"/>
       <c r="C150" s="6"/>
       <c r="D150" s="6"/>
       <c r="E150" s="6"/>
       <c r="F150" s="6"/>
-      <c r="G150" s="5">
+      <c r="G150" s="1">
         <v>60101030</v>
       </c>
-      <c r="H150" s="5" t="s">
+      <c r="H150" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="6"/>
       <c r="B151" s="6"/>
       <c r="C151" s="6"/>
       <c r="D151" s="6"/>
       <c r="E151" s="6"/>
       <c r="F151" s="6"/>
-      <c r="G151" s="5">
+      <c r="G151" s="1">
         <v>60101040</v>
       </c>
-      <c r="H151" s="5" t="s">
+      <c r="H151" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="152" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="6"/>
       <c r="B152" s="6"/>
       <c r="C152" s="6"/>
       <c r="D152" s="6"/>
       <c r="E152" s="6"/>
       <c r="F152" s="6"/>
-      <c r="G152" s="5">
+      <c r="G152" s="1">
         <v>60101050</v>
       </c>
-      <c r="H152" s="5" t="s">
+      <c r="H152" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="6"/>
       <c r="B153" s="6"/>
       <c r="C153" s="6"/>
       <c r="D153" s="6"/>
       <c r="E153" s="6"/>
       <c r="F153" s="6"/>
-      <c r="G153" s="5">
+      <c r="G153" s="1">
         <v>60101060</v>
       </c>
-      <c r="H153" s="5" t="s">
+      <c r="H153" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="6"/>
       <c r="B154" s="6"/>
       <c r="C154" s="6"/>
       <c r="D154" s="6"/>
       <c r="E154" s="6"/>
       <c r="F154" s="6"/>
-      <c r="G154" s="5">
+      <c r="G154" s="1">
         <v>60101070</v>
       </c>
-      <c r="H154" s="5" t="s">
+      <c r="H154" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="6"/>
       <c r="B155" s="6"/>
       <c r="C155" s="6"/>
       <c r="D155" s="6"/>
-      <c r="E155" s="8"/>
-      <c r="F155" s="8"/>
-      <c r="G155" s="5">
+      <c r="E155" s="7"/>
+      <c r="F155" s="7"/>
+      <c r="G155" s="1">
         <v>60101080</v>
       </c>
-      <c r="H155" s="5" t="s">
+      <c r="H155" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="6"/>
       <c r="B156" s="6"/>
       <c r="C156" s="6"/>
       <c r="D156" s="6"/>
-      <c r="E156" s="3">
+      <c r="E156" s="5">
         <v>601020</v>
       </c>
-      <c r="F156" s="3" t="s">
+      <c r="F156" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="G156" s="5">
+      <c r="G156" s="1">
         <v>60102010</v>
       </c>
-      <c r="H156" s="5" t="s">
+      <c r="H156" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="6"/>
       <c r="B157" s="6"/>
       <c r="C157" s="6"/>
       <c r="D157" s="6"/>
       <c r="E157" s="6"/>
       <c r="F157" s="6"/>
-      <c r="G157" s="5">
+      <c r="G157" s="1">
         <v>60102020</v>
       </c>
-      <c r="H157" s="5" t="s">
+      <c r="H157" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="6"/>
       <c r="B158" s="6"/>
       <c r="C158" s="6"/>
       <c r="D158" s="6"/>
       <c r="E158" s="6"/>
       <c r="F158" s="6"/>
-      <c r="G158" s="5">
+      <c r="G158" s="1">
         <v>60102030</v>
       </c>
-      <c r="H158" s="5" t="s">
+      <c r="H158" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="159" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A159" s="8"/>
-      <c r="B159" s="8"/>
-      <c r="C159" s="8"/>
-      <c r="D159" s="8"/>
-      <c r="E159" s="8"/>
-      <c r="F159" s="8"/>
-      <c r="G159" s="5">
+    <row r="159" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="7"/>
+      <c r="B159" s="7"/>
+      <c r="C159" s="7"/>
+      <c r="D159" s="7"/>
+      <c r="E159" s="7"/>
+      <c r="F159" s="7"/>
+      <c r="G159" s="1">
         <v>60102040</v>
       </c>
-      <c r="H159" s="5" t="s">
+      <c r="H159" s="1" t="s">
         <v>228</v>
       </c>
     </row>
@@ -3893,16 +3894,6 @@
     <mergeCell ref="D142:D147"/>
     <mergeCell ref="E146:E147"/>
     <mergeCell ref="F146:F147"/>
-    <mergeCell ref="C135:C141"/>
-    <mergeCell ref="D135:D141"/>
-    <mergeCell ref="E135:E138"/>
-    <mergeCell ref="F135:F138"/>
-    <mergeCell ref="E139:E140"/>
-    <mergeCell ref="F139:F140"/>
-    <mergeCell ref="C130:C131"/>
-    <mergeCell ref="D130:D131"/>
-    <mergeCell ref="E130:E131"/>
-    <mergeCell ref="F130:F131"/>
     <mergeCell ref="A132:A141"/>
     <mergeCell ref="B132:B141"/>
     <mergeCell ref="C132:C134"/>
@@ -3915,6 +3906,16 @@
     <mergeCell ref="D124:D129"/>
     <mergeCell ref="E126:E129"/>
     <mergeCell ref="F126:F129"/>
+    <mergeCell ref="C135:C141"/>
+    <mergeCell ref="D135:D141"/>
+    <mergeCell ref="E135:E138"/>
+    <mergeCell ref="F135:F138"/>
+    <mergeCell ref="E139:E140"/>
+    <mergeCell ref="F139:F140"/>
+    <mergeCell ref="C130:C131"/>
+    <mergeCell ref="D130:D131"/>
+    <mergeCell ref="E130:E131"/>
+    <mergeCell ref="F130:F131"/>
     <mergeCell ref="C114:C118"/>
     <mergeCell ref="D114:D118"/>
     <mergeCell ref="E114:E118"/>
@@ -3925,6 +3926,8 @@
     <mergeCell ref="D119:D123"/>
     <mergeCell ref="E119:E121"/>
     <mergeCell ref="F119:F121"/>
+    <mergeCell ref="A102:A118"/>
+    <mergeCell ref="B102:B118"/>
     <mergeCell ref="C105:C113"/>
     <mergeCell ref="D105:D113"/>
     <mergeCell ref="E105:E107"/>
@@ -3935,12 +3938,12 @@
     <mergeCell ref="F94:F97"/>
     <mergeCell ref="C99:C101"/>
     <mergeCell ref="D99:D101"/>
-    <mergeCell ref="A102:A118"/>
-    <mergeCell ref="B102:B118"/>
     <mergeCell ref="C102:C104"/>
     <mergeCell ref="D102:D104"/>
     <mergeCell ref="E102:E103"/>
     <mergeCell ref="F102:F103"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="F68:F69"/>
     <mergeCell ref="E87:E88"/>
     <mergeCell ref="F87:F88"/>
     <mergeCell ref="C90:C91"/>
@@ -3961,6 +3964,16 @@
     <mergeCell ref="D84:D89"/>
     <mergeCell ref="E84:E86"/>
     <mergeCell ref="F84:F86"/>
+    <mergeCell ref="A51:A79"/>
+    <mergeCell ref="B51:B79"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="D51:D54"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="C55:C63"/>
+    <mergeCell ref="D55:D63"/>
     <mergeCell ref="C70:C79"/>
     <mergeCell ref="D70:D79"/>
     <mergeCell ref="E72:E73"/>
@@ -3975,18 +3988,12 @@
     <mergeCell ref="D64:D69"/>
     <mergeCell ref="E64:E67"/>
     <mergeCell ref="F64:F67"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="A51:A79"/>
-    <mergeCell ref="B51:B79"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="D51:D54"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="C55:C63"/>
-    <mergeCell ref="D55:D63"/>
+    <mergeCell ref="A26:A50"/>
+    <mergeCell ref="B26:B50"/>
+    <mergeCell ref="C26:C35"/>
+    <mergeCell ref="D26:D35"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
     <mergeCell ref="C43:C50"/>
     <mergeCell ref="D43:D50"/>
     <mergeCell ref="E46:E47"/>
@@ -4001,18 +4008,6 @@
     <mergeCell ref="F36:F40"/>
     <mergeCell ref="E41:E42"/>
     <mergeCell ref="F41:F42"/>
-    <mergeCell ref="E17:E23"/>
-    <mergeCell ref="F17:F23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A26:A50"/>
-    <mergeCell ref="B26:B50"/>
-    <mergeCell ref="C26:C35"/>
-    <mergeCell ref="D26:D35"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="E4:E8"/>
-    <mergeCell ref="F4:F8"/>
     <mergeCell ref="A9:A25"/>
     <mergeCell ref="B9:B25"/>
     <mergeCell ref="C9:C25"/>
@@ -4021,6 +4016,10 @@
     <mergeCell ref="F9:F13"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="F15:F16"/>
+    <mergeCell ref="E17:E23"/>
+    <mergeCell ref="F17:F23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
@@ -4031,6 +4030,8 @@
     <mergeCell ref="D2:D8"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="F4:F8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" tooltip="Energy industry" display="https://en.wikipedia.org/wiki/Energy_industry" xr:uid="{1AADFAC9-F049-441E-8F00-33AB8C1E60E1}"/>
@@ -4048,4 +4049,1978 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId12"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA9EB9FE-9A37-4A3E-9E6F-8C84ECAD9C7A}">
+  <dimension ref="A1:D159"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>101010</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1">
+        <v>10101010</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="1">
+        <v>10101020</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>101020</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1">
+        <v>10102010</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="1">
+        <v>10102020</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="1">
+        <v>10102030</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="1">
+        <v>10102040</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="1">
+        <v>10102050</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>151010</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1">
+        <v>15101010</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="1">
+        <v>15101020</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="1">
+        <v>15101030</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="1">
+        <v>15101040</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="1">
+        <v>15101050</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>151020</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="1">
+        <v>15102010</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>151030</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="1">
+        <v>15103010</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="1">
+        <v>15103020</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>151040</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="1">
+        <v>15104010</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="1">
+        <v>15104020</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="1">
+        <v>15104025</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="1">
+        <v>15104030</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="1">
+        <v>15104040</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="1">
+        <v>15104045</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="1">
+        <v>15104050</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
+        <v>151050</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="1">
+        <v>15105010</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="1">
+        <v>15105020</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>201010</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="1">
+        <v>20101010</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>201020</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="1">
+        <v>20102010</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>201030</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="1">
+        <v>20103010</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
+        <v>201040</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="1">
+        <v>20104010</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="1">
+        <v>20104020</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>201050</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="1">
+        <v>20105010</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="5">
+        <v>201060</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="1">
+        <v>20106010</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="1">
+        <v>20106015</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="1">
+        <v>20106020</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>201070</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="1">
+        <v>20107010</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="5">
+        <v>202010</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="1">
+        <v>20201010</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="1">
+        <v>20201050</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="1">
+        <v>20201060</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="1">
+        <v>20201070</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="1">
+        <v>20201080</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="5">
+        <v>202020</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="1">
+        <v>20202010</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="1">
+        <v>20202020</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>203010</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43" s="1">
+        <v>20301010</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>203020</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44" s="1">
+        <v>20302010</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>203030</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C45" s="1">
+        <v>20303010</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="5">
+        <v>203040</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" s="1">
+        <v>20304010</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="1">
+        <v>20304020</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="5">
+        <v>203050</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C48" s="1">
+        <v>20305010</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="1">
+        <v>20305020</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="1">
+        <v>20305030</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="5">
+        <v>251010</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C51" s="1">
+        <v>25101010</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="1">
+        <v>25101020</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5">
+        <v>251020</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C53" s="1">
+        <v>25102010</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="1">
+        <v>25102020</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="5">
+        <v>252010</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C55" s="1">
+        <v>25201010</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="6"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="1">
+        <v>25201020</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="6"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="1">
+        <v>25201030</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="6"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="1">
+        <v>25201040</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="7"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="1">
+        <v>25201050</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>252020</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C60" s="1">
+        <v>25202010</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="5">
+        <v>252030</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C61" s="1">
+        <v>25203010</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="6"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="1">
+        <v>25203020</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="7"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="1">
+        <v>25203030</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="5">
+        <v>253010</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C64" s="1">
+        <v>25301010</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="6"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="1">
+        <v>25301020</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="6"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="1">
+        <v>25301030</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="7"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="1">
+        <v>25301040</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="5">
+        <v>253020</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C68" s="1">
+        <v>25302010</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="7"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="1">
+        <v>25302020</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>255010</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C70" s="1">
+        <v>25501010</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>255020</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C71" s="1">
+        <v>25502020</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="5">
+        <v>255030</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C72" s="1">
+        <v>25503010</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="7"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="1">
+        <v>25503020</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="5">
+        <v>255040</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C74" s="1">
+        <v>25504010</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="6"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="1">
+        <v>25504020</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="6"/>
+      <c r="B76" s="6"/>
+      <c r="C76" s="1">
+        <v>25504030</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="6"/>
+      <c r="B77" s="6"/>
+      <c r="C77" s="1">
+        <v>25504040</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="6"/>
+      <c r="B78" s="6"/>
+      <c r="C78" s="1">
+        <v>25504050</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="7"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="1">
+        <v>25504060</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="5">
+        <v>301010</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C80" s="1">
+        <v>30101010</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="6"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="1">
+        <v>30101020</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="6"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="1">
+        <v>30101030</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="7"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="1">
+        <v>30101040</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="5">
+        <v>302010</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C84" s="1">
+        <v>30201010</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="6"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="1">
+        <v>30201020</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="7"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="1">
+        <v>30201030</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="5">
+        <v>302020</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C87" s="1">
+        <v>30202010</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="7"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="1">
+        <v>30202030</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>302030</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C89" s="1">
+        <v>30203010</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>303010</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C90" s="1">
+        <v>30301010</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>303020</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C91" s="1">
+        <v>30302010</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="5">
+        <v>351010</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C92" s="1">
+        <v>35101010</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="7"/>
+      <c r="B93" s="7"/>
+      <c r="C93" s="1">
+        <v>35101020</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="5">
+        <v>351020</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C94" s="1">
+        <v>35102010</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="6"/>
+      <c r="B95" s="6"/>
+      <c r="C95" s="1">
+        <v>35102015</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="6"/>
+      <c r="B96" s="6"/>
+      <c r="C96" s="1">
+        <v>35102020</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="7"/>
+      <c r="B97" s="7"/>
+      <c r="C97" s="1">
+        <v>35102030</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>351030</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C98" s="1">
+        <v>35103010</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>352010</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C99" s="1">
+        <v>35201010</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>352020</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C100" s="1">
+        <v>35202010</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>352030</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C101" s="1">
+        <v>35203010</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="5">
+        <v>401010</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C102" s="1">
+        <v>40101010</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="7"/>
+      <c r="B103" s="7"/>
+      <c r="C103" s="1">
+        <v>40101015</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>401020</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C104" s="1">
+        <v>40102010</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="5">
+        <v>402010</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C105" s="1">
+        <v>40201020</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="6"/>
+      <c r="B106" s="6"/>
+      <c r="C106" s="1">
+        <v>40201030</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="7"/>
+      <c r="B107" s="7"/>
+      <c r="C107" s="1">
+        <v>40201040</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>402020</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C108" s="1">
+        <v>40202010</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="5">
+        <v>402030</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C109" s="1">
+        <v>40203010</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="6"/>
+      <c r="B110" s="6"/>
+      <c r="C110" s="1">
+        <v>40203020</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="6"/>
+      <c r="B111" s="6"/>
+      <c r="C111" s="1">
+        <v>40203030</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="7"/>
+      <c r="B112" s="7"/>
+      <c r="C112" s="1">
+        <v>40203040</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>402040</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C113" s="1">
+        <v>40204010</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="5">
+        <v>403010</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C114" s="1">
+        <v>40301010</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="6"/>
+      <c r="B115" s="6"/>
+      <c r="C115" s="1">
+        <v>40301020</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="6"/>
+      <c r="B116" s="6"/>
+      <c r="C116" s="1">
+        <v>40301030</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="6"/>
+      <c r="B117" s="6"/>
+      <c r="C117" s="1">
+        <v>40301040</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="7"/>
+      <c r="B118" s="7"/>
+      <c r="C118" s="1">
+        <v>40301050</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="5">
+        <v>451020</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C119" s="1">
+        <v>45102010</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="6"/>
+      <c r="B120" s="6"/>
+      <c r="C120" s="1">
+        <v>45102020</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="7"/>
+      <c r="B121" s="7"/>
+      <c r="C121" s="1">
+        <v>45102030</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="5">
+        <v>451030</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C122" s="1">
+        <v>45103010</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="7"/>
+      <c r="B123" s="7"/>
+      <c r="C123" s="1">
+        <v>45103020</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
+        <v>452010</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C124" s="1">
+        <v>45201020</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
+        <v>452020</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C125" s="1">
+        <v>45202030</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="5">
+        <v>452030</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C126" s="1">
+        <v>45203010</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="6"/>
+      <c r="B127" s="6"/>
+      <c r="C127" s="1">
+        <v>45203015</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="6"/>
+      <c r="B128" s="6"/>
+      <c r="C128" s="1">
+        <v>45203020</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="7"/>
+      <c r="B129" s="7"/>
+      <c r="C129" s="1">
+        <v>45203030</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="5">
+        <v>453010</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C130" s="1">
+        <v>45301010</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="7"/>
+      <c r="B131" s="7"/>
+      <c r="C131" s="1">
+        <v>45301020</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="5">
+        <v>501010</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C132" s="1">
+        <v>50101010</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="7"/>
+      <c r="B133" s="7"/>
+      <c r="C133" s="1">
+        <v>50101020</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="1">
+        <v>501020</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C134" s="1">
+        <v>50102010</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="5">
+        <v>502010</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C135" s="1">
+        <v>50201010</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="6"/>
+      <c r="B136" s="6"/>
+      <c r="C136" s="1">
+        <v>50201020</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="6"/>
+      <c r="B137" s="6"/>
+      <c r="C137" s="1">
+        <v>50201030</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="7"/>
+      <c r="B138" s="7"/>
+      <c r="C138" s="1">
+        <v>50201040</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="5">
+        <v>502020</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C139" s="1">
+        <v>50202010</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="7"/>
+      <c r="B140" s="7"/>
+      <c r="C140" s="1">
+        <v>50202020</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="1">
+        <v>502030</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C141" s="1">
+        <v>50203010</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="1">
+        <v>551010</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C142" s="1">
+        <v>55101010</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="1">
+        <v>551020</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C143" s="1">
+        <v>55102010</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="1">
+        <v>551030</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C144" s="1">
+        <v>55103010</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="1">
+        <v>551040</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C145" s="1">
+        <v>55104010</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="5">
+        <v>551050</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C146" s="1">
+        <v>55105010</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="7"/>
+      <c r="B147" s="7"/>
+      <c r="C147" s="1">
+        <v>55105020</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="5">
+        <v>601010</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C148" s="1">
+        <v>60101010</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="6"/>
+      <c r="B149" s="6"/>
+      <c r="C149" s="1">
+        <v>60101020</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="6"/>
+      <c r="B150" s="6"/>
+      <c r="C150" s="1">
+        <v>60101030</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="6"/>
+      <c r="B151" s="6"/>
+      <c r="C151" s="1">
+        <v>60101040</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="6"/>
+      <c r="B152" s="6"/>
+      <c r="C152" s="1">
+        <v>60101050</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="6"/>
+      <c r="B153" s="6"/>
+      <c r="C153" s="1">
+        <v>60101060</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="6"/>
+      <c r="B154" s="6"/>
+      <c r="C154" s="1">
+        <v>60101070</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="7"/>
+      <c r="B155" s="7"/>
+      <c r="C155" s="1">
+        <v>60101080</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="5">
+        <v>601020</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C156" s="1">
+        <v>60102010</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="6"/>
+      <c r="B157" s="6"/>
+      <c r="C157" s="1">
+        <v>60102020</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="6"/>
+      <c r="B158" s="6"/>
+      <c r="C158" s="1">
+        <v>60102030</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="7"/>
+      <c r="B159" s="7"/>
+      <c r="C159" s="1">
+        <v>60102040</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="80">
+    <mergeCell ref="A156:A159"/>
+    <mergeCell ref="B156:B159"/>
+    <mergeCell ref="A139:A140"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="A146:A147"/>
+    <mergeCell ref="B146:B147"/>
+    <mergeCell ref="A148:A155"/>
+    <mergeCell ref="B148:B155"/>
+    <mergeCell ref="A130:A131"/>
+    <mergeCell ref="B130:B131"/>
+    <mergeCell ref="A132:A133"/>
+    <mergeCell ref="B132:B133"/>
+    <mergeCell ref="A135:A138"/>
+    <mergeCell ref="B135:B138"/>
+    <mergeCell ref="A119:A121"/>
+    <mergeCell ref="B119:B121"/>
+    <mergeCell ref="A122:A123"/>
+    <mergeCell ref="B122:B123"/>
+    <mergeCell ref="A126:A129"/>
+    <mergeCell ref="B126:B129"/>
+    <mergeCell ref="A105:A107"/>
+    <mergeCell ref="B105:B107"/>
+    <mergeCell ref="A109:A112"/>
+    <mergeCell ref="B109:B112"/>
+    <mergeCell ref="A114:A118"/>
+    <mergeCell ref="B114:B118"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="A94:A97"/>
+    <mergeCell ref="B94:B97"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="B80:B83"/>
+    <mergeCell ref="A84:A86"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="A74:A79"/>
+    <mergeCell ref="B74:B79"/>
+    <mergeCell ref="A55:A59"/>
+    <mergeCell ref="B55:B59"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="A17:A23"/>
+    <mergeCell ref="B17:B23"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="B4:B8"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B9" r:id="rId1" tooltip="Chemical industry" display="https://en.wikipedia.org/wiki/Chemical_industry" xr:uid="{A498B019-B0CC-4933-896F-03646493ACBF}"/>
+    <hyperlink ref="D25" r:id="rId2" tooltip="Pulp and paper industry" display="https://en.wikipedia.org/wiki/Pulp_and_paper_industry" xr:uid="{D4C608CC-9323-4AE3-B6D7-924C5E7E84DA}"/>
+    <hyperlink ref="B26" r:id="rId3" tooltip="Arms industry" display="https://en.wikipedia.org/wiki/Arms_industry" xr:uid="{24AA7968-EFB3-4FAC-997E-5C99C6D272E2}"/>
+    <hyperlink ref="B28" r:id="rId4" tooltip="Construction" display="https://en.wikipedia.org/wiki/Construction" xr:uid="{43045370-D98D-41F7-BD4C-8F3609A41591}"/>
+    <hyperlink ref="D28" r:id="rId5" tooltip="Construction" display="https://en.wikipedia.org/wiki/Construction" xr:uid="{9036A3C1-75B7-416F-93C1-9B26D1768718}"/>
+    <hyperlink ref="B44" r:id="rId6" tooltip="Airline" display="https://en.wikipedia.org/wiki/Airline" xr:uid="{C9B059F5-5198-4D83-AB3A-28845E5FFAD4}"/>
+    <hyperlink ref="D44" r:id="rId7" tooltip="Airline" display="https://en.wikipedia.org/wiki/Airline" xr:uid="{5119E7C7-90F4-40EC-A6AE-4BA8432D9E96}"/>
+    <hyperlink ref="B45" r:id="rId8" tooltip="Maritime transport" display="https://en.wikipedia.org/wiki/Maritime_transport" xr:uid="{63F50729-FA6E-478F-B87B-8F53C732E6F4}"/>
+    <hyperlink ref="B61" r:id="rId9" tooltip="Luxury goods" display="https://en.wikipedia.org/wiki/Luxury_goods" xr:uid="{EDF0304F-E0D2-4C57-9DB8-E42B52FE83C7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>